--- a/Revision Sheets/Graphs.xlsx
+++ b/Revision Sheets/Graphs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harsh\Documents\DSA\Revision Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B6F4BD8D-EFC0-455E-A3DC-FEC355610E3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6237F1EF-CE4F-4C9C-BAE1-AB02E48A4738}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{415764D4-0520-4E9B-9590-75889361BDE1}"/>
+    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{35E7E062-26CC-4753-91BD-EDAC4324F67E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,12 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
-  <si>
-    <t>Questions</t>
-  </si>
-  <si>
-    <t>Approach</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
+  <si>
+    <t>Appraoch</t>
+  </si>
+  <si>
+    <t>Question</t>
   </si>
   <si>
     <t>BFS</t>
@@ -39,7 +39,31 @@
     <t>DFS</t>
   </si>
   <si>
-    <t>Number of Provinces</t>
+    <t>Number of Islands</t>
+  </si>
+  <si>
+    <t>Rotten Oranges</t>
+  </si>
+  <si>
+    <t>Number of provinces (leetcode)</t>
+  </si>
+  <si>
+    <t>Connected Components Problem in Mat…</t>
+  </si>
+  <si>
+    <t>Cycle Detection in unirected Graph …</t>
+  </si>
+  <si>
+    <t>Cycle Detection in undirected Graph…</t>
+  </si>
+  <si>
+    <t>0/1 Matrix (Bfs Problem)</t>
+  </si>
+  <si>
+    <t>Surrounded Regions (dfs)</t>
+  </si>
+  <si>
+    <t>Number of Enclaves [flood fill impl…</t>
   </si>
   <si>
     <t>Word ladder - 1</t>
@@ -48,37 +72,13 @@
     <t>Word ladder - 2</t>
   </si>
   <si>
-    <t>Number of Distinct Islands</t>
+    <t>Number of Distinct Islands [dfs mul…</t>
   </si>
   <si>
     <t>Bipartite Graph (DFS)</t>
   </si>
   <si>
-    <t>Cycle Detection in Directed Graph</t>
-  </si>
-  <si>
-    <t>Connected Components Problem in Matrix</t>
-  </si>
-  <si>
-    <t>Rotten Oranges</t>
-  </si>
-  <si>
-    <t>Flood fill</t>
-  </si>
-  <si>
-    <t>Detect cycle in Undirected Graph BFS</t>
-  </si>
-  <si>
-    <t>Detect cycle in Undirected Graph DFS</t>
-  </si>
-  <si>
-    <t>0/1 Matrix </t>
-  </si>
-  <si>
-    <t>Surrounded Regions</t>
-  </si>
-  <si>
-    <t>Number of Enclaves</t>
+    <t>Cycle Detection in Directed Graph (…</t>
   </si>
   <si>
     <t>Topo Sort</t>
@@ -99,10 +99,34 @@
     <t>Alien dictionary</t>
   </si>
   <si>
-    <t>Shortest Path in UG with unit weights</t>
-  </si>
-  <si>
-    <t>Minimum steps to reach end from start </t>
+    <t>Shortest Path in UG with unit weigh…</t>
+  </si>
+  <si>
+    <t>Shortest Path in DAG</t>
+  </si>
+  <si>
+    <t>Djisktra's Algorithm</t>
+  </si>
+  <si>
+    <t>Why priority Queue is used in Djisk…</t>
+  </si>
+  <si>
+    <t>Shortest path in a binary maze</t>
+  </si>
+  <si>
+    <t>Path with minimum effort</t>
+  </si>
+  <si>
+    <t>Cheapest flights within k stops</t>
+  </si>
+  <si>
+    <t>Network Delay time</t>
+  </si>
+  <si>
+    <t>Number of ways to arrive at destina…</t>
+  </si>
+  <si>
+    <t>Minimum steps to reach end from sta…</t>
   </si>
   <si>
     <t>Bellman Ford Algorithm</t>
@@ -111,7 +135,7 @@
     <t>Floyd Warshal Algorithm</t>
   </si>
   <si>
-    <t>Djisktra's Algorithm</t>
+    <t>Find the city with the smallest num…</t>
   </si>
   <si>
     <t>Minimum Spanning Tree</t>
@@ -120,14 +144,41 @@
     <t>Prim's Algorithm</t>
   </si>
   <si>
+    <t>Disjoint Set [Union by Rank]</t>
+  </si>
+  <si>
+    <t>Disjoint Set [Union by Size]</t>
+  </si>
+  <si>
     <t>Kruskal's Algorithm</t>
+  </si>
+  <si>
+    <t>Number of operations to make networ…</t>
+  </si>
+  <si>
+    <t>Most stones removed with same rows …</t>
+  </si>
+  <si>
+    <t>Accounts merge</t>
+  </si>
+  <si>
+    <t>Number of island II</t>
+  </si>
+  <si>
+    <t>Making a Large Island</t>
+  </si>
+  <si>
+    <t>Swim in rising water</t>
+  </si>
+  <si>
+    <t>Bridges in Graph</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,13 +186,41 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -153,13 +232,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -471,178 +559,315 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2715BD38-DBE0-4DEF-8EB0-0949FD0AB2CE}">
-  <dimension ref="A1:B31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA653173-F13C-4421-BEAB-E66420E69DB9}">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:B53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.7265625" customWidth="1"/>
-    <col min="2" max="2" width="95.81640625" customWidth="1"/>
+    <col min="1" max="1" width="26.1796875" customWidth="1"/>
+    <col min="2" max="2" width="113.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>26</v>
+      <c r="A4" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>29</v>
+      <c r="A7" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>31</v>
+      <c r="A8" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>4</v>
+      <c r="A10" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>5</v>
+      <c r="A11" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>6</v>
+      <c r="A12" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>7</v>
+      <c r="A13" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>8</v>
+      <c r="A14" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>9</v>
+      <c r="A15" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>10</v>
+      <c r="A16" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>12</v>
+      <c r="A17" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>13</v>
+      <c r="A19" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>14</v>
+      <c r="A20" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>16</v>
+      <c r="A22" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>17</v>
+      <c r="A23" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>18</v>
+      <c r="A24" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>21</v>
+      <c r="A25" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A27" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>22</v>
+      <c r="A28" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>23</v>
+      <c r="A29" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>24</v>
+      <c r="A30" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>25</v>
+      <c r="A31" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A32" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A33" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A35" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A36" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A37" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A38" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A39" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A41" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A42" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A43" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A44" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A45" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A46" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A47" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A48" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A49" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A50" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A53" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A7" r:id="rId1" display="https://takeuforward.org/data-structure/rotten-oranges-min-time-to-rot-all-oranges-bfs/" xr:uid="{EE66BE75-E885-499F-9961-223D628C4778}"/>
+    <hyperlink ref="A8" r:id="rId2" display="https://takeuforward.org/data-structure/detect-cycle-in-an-undirected-graph-using-bfs/" xr:uid="{ACAF3C71-AFE0-4BA6-80D2-0AA2531F16EA}"/>
+    <hyperlink ref="A9" r:id="rId3" display="https://takeuforward.org/data-structure/detect-cycle-in-an-undirected-graph-using-dfs/" xr:uid="{B581BBC3-A97A-4AA4-BBD6-623D85297449}"/>
+    <hyperlink ref="A10" r:id="rId4" display="https://takeuforward.org/graph/distance-of-nearest-cell-having-1/" xr:uid="{41E3EB18-E102-4797-9340-8BA428EC3AAC}"/>
+    <hyperlink ref="A11" r:id="rId5" display="https://takeuforward.org/graph/surrounded-regions-replace-os-with-xs/" xr:uid="{50D97792-B17E-4274-ABCE-3E604AD730DD}"/>
+    <hyperlink ref="A12" r:id="rId6" display="https://takeuforward.org/graph/number-of-enclaves/" xr:uid="{9E564777-8221-445A-A458-7D89C79CCFEB}"/>
+    <hyperlink ref="A13" r:id="rId7" display="https://takeuforward.org/graph/word-ladder-i-g-29/" xr:uid="{9809912C-9DFE-440C-88F1-6306EA0C71EC}"/>
+    <hyperlink ref="A14" r:id="rId8" display="https://takeuforward.org/graph/g-30-word-ladder-ii/" xr:uid="{8AB868E2-1EC4-448B-9BF4-AB2A40801588}"/>
+    <hyperlink ref="A15" r:id="rId9" display="https://takeuforward.org/data-structure/number-of-islands/" xr:uid="{EEF9EEBA-4412-402B-A392-97FBBD13EFE8}"/>
+    <hyperlink ref="A16" r:id="rId10" display="https://takeuforward.org/graph/bipartite-graph-dfs-implementation/" xr:uid="{CB66E271-F9A4-498C-A3B8-8D0D8B4B93B1}"/>
+    <hyperlink ref="A17" r:id="rId11" display="https://takeuforward.org/data-structure/detect-cycle-in-a-directed-graph-using-dfs-g-19/" xr:uid="{3346938B-C6F4-42D3-B64B-037D3BB3EB1C}"/>
+    <hyperlink ref="A4" r:id="rId12" display="https://takeuforward.org/data-structure/number-of-provinces/" xr:uid="{E653B7E3-7124-4286-A57C-EA3D06F29D17}"/>
+    <hyperlink ref="A2" r:id="rId13" display="https://takeuforward.org/graph/breadth-first-search-bfs-level-order-traversal/" xr:uid="{5CA39B92-A65A-491F-A2E7-881CA7566D0E}"/>
+    <hyperlink ref="A3" r:id="rId14" display="https://takeuforward.org/data-structure/depth-first-search-dfs/" xr:uid="{8EB0B30A-4E08-48CA-80C1-A534436E594C}"/>
+    <hyperlink ref="A19" r:id="rId15" display="https://takeuforward.org/data-structure/topological-sort-algorithm-dfs-g-21/" xr:uid="{1B55E71C-4DE5-43EB-8F46-C6B9FF0EE8B7}"/>
+    <hyperlink ref="A20" r:id="rId16" display="https://takeuforward.org/data-structure/kahns-algorithm-topological-sort-algorithm-bfs-g-22/" xr:uid="{972F25B9-C415-4698-8C0C-082E945698B7}"/>
+    <hyperlink ref="A22" r:id="rId17" display="https://takeuforward.org/data-structure/course-schedule-i-and-ii-pre-requisite-tasks-topological-sort-g-24/" xr:uid="{DDBF7E4C-BFB3-44F1-A8B4-329E80E515A7}"/>
+    <hyperlink ref="A23" r:id="rId18" display="https://takeuforward.org/data-structure/course-schedule-i-and-ii-pre-requisite-tasks-topological-sort-g-24/" xr:uid="{F8A791A6-15B6-43FE-A65C-9502CCD9B65D}"/>
+    <hyperlink ref="A24" r:id="rId19" display="https://takeuforward.org/data-structure/find-eventual-safe-states-bfs-topological-sort-g-25/" xr:uid="{B3E0BC2B-F9C7-4594-A943-D84E43174F48}"/>
+    <hyperlink ref="A25" r:id="rId20" display="https://takeuforward.org/data-structure/alien-dictionary-topological-sort-g-26/" xr:uid="{857E2791-DFCF-417A-8086-AFF077EFF45C}"/>
+    <hyperlink ref="A27" r:id="rId21" display="https://takeuforward.org/data-structure/shortest-path-in-undirected-graph-with-unit-distance-g-28/" xr:uid="{711B07AE-8AB7-4438-A531-D198298B8AD8}"/>
+    <hyperlink ref="A28" r:id="rId22" display="https://takeuforward.org/data-structure/shortest-path-in-directed-acyclic-graph-topological-sort-g-27/" xr:uid="{F63313E7-7AFC-40AB-ACB2-4CB0ABD0F20D}"/>
+    <hyperlink ref="A29" r:id="rId23" display="https://takeuforward.org/data-structure/dijkstras-algorithm-using-set-g-33/" xr:uid="{BCFF76FD-3EDB-422B-B5BC-B68475143F6A}"/>
+    <hyperlink ref="A30" r:id="rId24" display="https://takeuforward.org/data-structure/dijkstras-algorithm-using-priority-queue-g-32/" xr:uid="{127ED3E7-5E29-4E23-BE59-316F9161F169}"/>
+    <hyperlink ref="A31" r:id="rId25" display="https://takeuforward.org/data-structure/g-36-shortest-distance-in-a-binary-maze/" xr:uid="{20B55843-20B5-4308-895D-D3E36AA0BD6B}"/>
+    <hyperlink ref="A32" r:id="rId26" display="https://takeuforward.org/data-structure/g-37-path-with-minimum-effort/" xr:uid="{B7E633CC-528F-482E-9936-4C54DC14CB5C}"/>
+    <hyperlink ref="A33" r:id="rId27" display="https://takeuforward.org/data-structure/g-38-cheapest-flights-within-k-stops/" xr:uid="{377986DF-9037-4FD6-A6E0-CD0C57104B2C}"/>
+    <hyperlink ref="A35" r:id="rId28" display="https://takeuforward.org/data-structure/g-40-number-of-ways-to-arrive-at-destination/" xr:uid="{8CAFF60C-0061-4D2B-A454-4ADC69238914}"/>
+    <hyperlink ref="A36" r:id="rId29" display="https://takeuforward.org/graph/g-39-minimum-multiplications-to-reach-end/" xr:uid="{F11639E5-095F-484E-80C1-CC1CAB4E05A7}"/>
+    <hyperlink ref="A37" r:id="rId30" display="https://takeuforward.org/data-structure/bellman-ford-algorithm-g-41/" xr:uid="{E18DE21F-C4B9-457D-BFAA-B8DA2AF2B6F8}"/>
+    <hyperlink ref="A38" r:id="rId31" display="https://takeuforward.org/data-structure/floyd-warshall-algorithm-g-42/" xr:uid="{0302A46B-87C1-4656-9812-A75397FB71E0}"/>
+    <hyperlink ref="A39" r:id="rId32" display="https://takeuforward.org/data-structure/find-the-city-with-the-smallest-number-of-neighbours-at-a-threshold-distance-g-43/" xr:uid="{DFB4C719-5F42-4BF8-9C07-4FB43312CC9D}"/>
+    <hyperlink ref="A41" r:id="rId33" display="https://takeuforward.org/data-structure/minimum-spanning-tree-theory-g-44/" xr:uid="{C6DFB90B-3936-4BC9-A076-D7CA77C9D25B}"/>
+    <hyperlink ref="A42" r:id="rId34" display="https://takeuforward.org/data-structure/prims-algorithm-minimum-spanning-tree-c-and-java-g-45/" xr:uid="{3870C490-83CB-406C-92E4-41B05176EB8D}"/>
+    <hyperlink ref="A43" r:id="rId35" display="https://takeuforward.org/data-structure/disjoint-set-union-by-rank-union-by-size-path-compression-g-46/" xr:uid="{B75D5F05-CC56-47D3-A2E2-2C8FC3D3F999}"/>
+    <hyperlink ref="A44" r:id="rId36" display="https://takeuforward.org/data-structure/disjoint-set-union-by-rank-union-by-size-path-compression-g-46/" xr:uid="{86189538-C5B8-4AFB-B192-6707419F6F46}"/>
+    <hyperlink ref="A45" r:id="rId37" display="https://takeuforward.org/data-structure/kruskals-algorithm-minimum-spanning-tree-g-47/" xr:uid="{D34ED81F-0916-4F4B-AA67-35F7EBC89974}"/>
+    <hyperlink ref="A46" r:id="rId38" display="https://takeuforward.org/data-structure/number-of-operations-to-make-network-connected-dsu-g-49/" xr:uid="{01C90E16-5035-4A0D-99F2-1CFA4853E87A}"/>
+    <hyperlink ref="A47" r:id="rId39" display="https://takeuforward.org/data-structure/most-stones-removed-with-same-row-or-column-dsu-g-53/" xr:uid="{52172C0D-D01F-4CC9-BEFD-874B001D6545}"/>
+    <hyperlink ref="A48" r:id="rId40" display="https://takeuforward.org/data-structure/accounts-merge-dsu-g-50/" xr:uid="{3DFF9211-D6E8-4002-AD15-1F3326841913}"/>
+    <hyperlink ref="A49" r:id="rId41" display="https://takeuforward.org/graph/number-of-islands-ii-online-queries-dsu-g-51/" xr:uid="{1A26BCBC-EDCD-4ECD-AB4A-141C7692D971}"/>
+    <hyperlink ref="A50" r:id="rId42" display="https://takeuforward.org/data-structure/making-a-large-island-dsu-g-52/" xr:uid="{20BFA37F-CEE9-4141-9BEE-7ECBC7232177}"/>
+    <hyperlink ref="A53" r:id="rId43" display="https://takeuforward.org/graph/bridges-in-graph-using-tarjans-algorithm-of-time-in-and-low-time-g-55/" xr:uid="{51868B36-195E-4244-9CC4-01CEE3697814}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId44"/>
 </worksheet>
 </file>